--- a/Base de datos - Formulario.xlsx
+++ b/Base de datos - Formulario.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="127">
   <si>
     <t>TABLA</t>
   </si>
@@ -370,6 +370,45 @@
   </si>
   <si>
     <t>Estado de Temperancia</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>LGVivo</t>
+  </si>
+  <si>
+    <t>Presenta lesiones</t>
+  </si>
+  <si>
+    <t>Victima</t>
+  </si>
+  <si>
+    <t>¿Que lesiones? y origen de lesiones</t>
+  </si>
+  <si>
+    <t>GLLesiones</t>
+  </si>
+  <si>
+    <t>Datos del contacto</t>
+  </si>
+  <si>
+    <t>Con quién vive</t>
+  </si>
+  <si>
+    <t>CDTParentesco</t>
+  </si>
+  <si>
+    <t>tipo de residencia</t>
+  </si>
+  <si>
+    <t>¿Conoce al denunciado(s)?</t>
+  </si>
+  <si>
+    <t>¿Podría entregar descripción de él o ellos?</t>
+  </si>
+  <si>
+    <t>Qué relación tiene con el denunciado(s)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +430,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,11 +462,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,16 +774,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="97.28515625" bestFit="1" customWidth="1"/>
@@ -789,14 +839,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1627,8 +1677,8 @@
       <c r="B75" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
       <c r="E75" t="s">
         <v>33</v>
       </c>
@@ -1832,6 +1882,313 @@
         <v>113</v>
       </c>
       <c r="E92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>107</v>
+      </c>
+      <c r="D114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>107</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E118" t="s">
         <v>33</v>
       </c>
     </row>
